--- a/Data/Vanilla Expanded/Vanilla Temperature Expanded - 3202046258/3202046258.xlsx
+++ b/Data/Vanilla Expanded/Vanilla Temperature Expanded - 3202046258/3202046258.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stone\Desktop\새 폴더 (2)\RimworldExtractor 0.6.2\Vanilla Temperature Expanded - 3202046258\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\RimWorld\Mods\RMK\Data\Vanilla Expanded\Vanilla Temperature Expanded - 3202046258\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94A8436D-AAB7-436A-8038-BF88443DD71F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CFBC062-0D8A-4ADC-BD4D-F0BF7202B702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="249">
   <si>
     <t>Class+Node [(Identifier (Key)]</t>
   </si>
@@ -133,534 +133,705 @@
     <t>VTE_ACControlUnit.description</t>
   </si>
   <si>
+    <t>ThingDef+VTE_ACUnit.label</t>
+  </si>
+  <si>
+    <t>VTE_ACUnit.label</t>
+  </si>
+  <si>
+    <t>AC unit</t>
+  </si>
+  <si>
+    <t>ThingDef+VTE_ACUnit.description</t>
+  </si>
+  <si>
+    <t>VTE_ACUnit.description</t>
+  </si>
+  <si>
+    <t>ThingDef+VTE_ACUnitWall.label</t>
+  </si>
+  <si>
+    <t>VTE_ACUnitWall.label</t>
+  </si>
+  <si>
+    <t>wall-mounted AC unit</t>
+  </si>
+  <si>
+    <t>ThingDef+VTE_ACUnitWall.description</t>
+  </si>
+  <si>
+    <t>VTE_ACUnitWall.description</t>
+  </si>
+  <si>
+    <t>A wall-mounted air-conditioning machine. Emits either cool or warm air in the same direction, depending on the current temperature of the room. Unless unlinked from the network settings, it will aim to achieve the temperature specified in the AC control unit. Needs to be connected to the AC control unit via air ducts. Can only be constructed on a wall.</t>
+  </si>
+  <si>
+    <t>ThingDef+VTE_ACCompressor.label</t>
+  </si>
+  <si>
+    <t>VTE_ACCompressor.label</t>
+  </si>
+  <si>
+    <t>AC compressor</t>
+  </si>
+  <si>
+    <t>ThingDef+VTE_ACCompressor.description</t>
+  </si>
+  <si>
+    <t>VTE_ACCompressor.description</t>
+  </si>
+  <si>
+    <t>ThingDef+VTE_LargeACCompressor.label</t>
+  </si>
+  <si>
+    <t>VTE_LargeACCompressor.label</t>
+  </si>
+  <si>
+    <t>large AC compressor</t>
+  </si>
+  <si>
+    <t>ThingDef+VTE_LargeACCompressor.description</t>
+  </si>
+  <si>
+    <t>VTE_LargeACCompressor.description</t>
+  </si>
+  <si>
+    <t>A large air conditioning compressor that needs to be connected to an AC control unit via air ducts. Can only be placed outside. When powered, it allows the AC network to operate six additional AC devices without losing efficiency.</t>
+  </si>
+  <si>
+    <t>ResearchProjectDef+VTE_HVAC.label</t>
+  </si>
+  <si>
+    <t>ResearchProjectDef</t>
+  </si>
+  <si>
+    <t>VTE_HVAC.label</t>
+  </si>
+  <si>
+    <t>HVAC</t>
+  </si>
+  <si>
+    <t>ResearchProjectDef+VTE_HVAC.description</t>
+  </si>
+  <si>
+    <t>VTE_HVAC.description</t>
+  </si>
+  <si>
+    <t>ResearchTabDef+VanillaExpanded.label</t>
+  </si>
+  <si>
+    <t>ResearchTabDef</t>
+  </si>
+  <si>
+    <t>VanillaExpanded.label</t>
+  </si>
+  <si>
+    <t>Vanilla Expanded</t>
+  </si>
+  <si>
+    <t>ThingDef+VTE_IndustrialHeater.label</t>
+  </si>
+  <si>
+    <t>VTE_IndustrialHeater.label</t>
+  </si>
+  <si>
+    <t>industrial heater</t>
+  </si>
+  <si>
+    <t>ThingDef+VTE_IndustrialHeater.description</t>
+  </si>
+  <si>
+    <t>VTE_IndustrialHeater.description</t>
+  </si>
+  <si>
+    <t>ThingDef+VTE_IndustrialCooler.label</t>
+  </si>
+  <si>
+    <t>VTE_IndustrialCooler.label</t>
+  </si>
+  <si>
+    <t>industrial cooler</t>
+  </si>
+  <si>
+    <t>ThingDef+VTE_IndustrialCooler.description</t>
+  </si>
+  <si>
+    <t>VTE_IndustrialCooler.description</t>
+  </si>
+  <si>
+    <t>ThingDef+VTE_WallHeater.label</t>
+  </si>
+  <si>
+    <t>VTE_WallHeater.label</t>
+  </si>
+  <si>
+    <t>wall heater</t>
+  </si>
+  <si>
+    <t>ThingDef+VTE_WallHeater.description</t>
+  </si>
+  <si>
+    <t>VTE_WallHeater.description</t>
+  </si>
+  <si>
+    <t>A heating machine that fits into a wall. It converts electricity into heat. It can automatically turn itself on or off to reach a specific target temperature. Can be used to heat up rooms during winter.</t>
+  </si>
+  <si>
+    <t>ThingDef+VTE_WallMountedHeater.label</t>
+  </si>
+  <si>
+    <t>VTE_WallMountedHeater.label</t>
+  </si>
+  <si>
+    <t>wall-mounted heater</t>
+  </si>
+  <si>
+    <t>ThingDef+VTE_WallMountedHeater.description</t>
+  </si>
+  <si>
+    <t>VTE_WallMountedHeater.description</t>
+  </si>
+  <si>
+    <t>A wall-mounted device that converts electricity into heat. It can automatically turn itself on or off to reach a specific target temperature. Can only be constructed on a wall.</t>
+  </si>
+  <si>
+    <t>ThingDef+VTE_WallMountedCooler.label</t>
+  </si>
+  <si>
+    <t>VTE_WallMountedCooler.label</t>
+  </si>
+  <si>
+    <t>wall-mounted cooler</t>
+  </si>
+  <si>
+    <t>ThingDef+VTE_WallMountedCooler.description</t>
+  </si>
+  <si>
+    <t>VTE_WallMountedCooler.description</t>
+  </si>
+  <si>
+    <t>A wall-mounted air-cooling machine that fits into a wall. Cool air comes out one side, while hot exhaust comes out the other. Can be used to cool down rooms during summer, or to create a walk-in freezer. Can only be constructed on a wall.</t>
+  </si>
+  <si>
+    <t>ThingDef+VTE_WallMountedVent.label</t>
+  </si>
+  <si>
+    <t>VTE_WallMountedVent.label</t>
+  </si>
+  <si>
+    <t>wall-mounted vent</t>
+  </si>
+  <si>
+    <t>ThingDef+VTE_WallMountedVent.description</t>
+  </si>
+  <si>
+    <t>VTE_WallMountedVent.description</t>
+  </si>
+  <si>
+    <t>A simple, wall-mounted vent for equalizing the temperature between two rooms without allowing people to walk between them. Can only be constructed on a wall.</t>
+  </si>
+  <si>
+    <t>ThingDef+VTE_StandingCooler.label</t>
+  </si>
+  <si>
+    <t>VTE_StandingCooler.label</t>
+  </si>
+  <si>
+    <t>standing cooler</t>
+  </si>
+  <si>
+    <t>ThingDef+VTE_StandingCooler.description</t>
+  </si>
+  <si>
+    <t>VTE_StandingCooler.description</t>
+  </si>
+  <si>
+    <t>A free standing air-cooling machine. Cool air comes out of a fan and spreads over surrounding area. Can be used to cool down rooms during summer. Not efficient enough to refrigerate food.</t>
+  </si>
+  <si>
+    <t>ThingDef+VTE_SmallCeilingFan.label</t>
+  </si>
+  <si>
+    <t>VTE_SmallCeilingFan.label</t>
+  </si>
+  <si>
+    <t>small ceiling fan</t>
+  </si>
+  <si>
+    <t>ThingDef+VTE_SmallCeilingFan.description</t>
+  </si>
+  <si>
+    <t>VTE_SmallCeilingFan.description</t>
+  </si>
+  <si>
+    <t>ThingDef+VTE_LargeCeilingFan.label</t>
+  </si>
+  <si>
+    <t>VTE_LargeCeilingFan.label</t>
+  </si>
+  <si>
+    <t>large ceiling fan</t>
+  </si>
+  <si>
+    <t>ThingDef+VTE_LargeCeilingFan.description</t>
+  </si>
+  <si>
+    <t>VTE_LargeCeilingFan.description</t>
+  </si>
+  <si>
+    <t>A large, ceiling-mounted fan. Can be used to quickly cool down rooms during the summer. Not efficient enough to refrigerate food, it will aim to reach a room temperature of 17C.</t>
+  </si>
+  <si>
+    <t>Keyed+PH.EnableProxyHeatEffectIndoors</t>
+  </si>
+  <si>
+    <t>Keyed</t>
+  </si>
+  <si>
+    <t>PH.EnableProxyHeatEffectIndoors</t>
+  </si>
+  <si>
+    <t>Enable proxy heat effect indoors</t>
+  </si>
+  <si>
+    <t>Keyed+PH.AllowPlantGrowthInsideProxyHeatEffectRadius</t>
+  </si>
+  <si>
+    <t>PH.AllowPlantGrowthInsideProxyHeatEffectRadius</t>
+  </si>
+  <si>
+    <t>Allow plant growth inside proxy heat effect radius</t>
+  </si>
+  <si>
+    <t>Keyed+VTE.MustPlaceHeaterWithFreeSpaces</t>
+  </si>
+  <si>
+    <t>VTE.MustPlaceHeaterWithFreeSpaces</t>
+  </si>
+  <si>
+    <t>The hot side of the heater must be exposed.</t>
+  </si>
+  <si>
+    <t>Keyed+VTE.MustPlaceUnderRoof</t>
+  </si>
+  <si>
+    <t>VTE.MustPlaceUnderRoof</t>
+  </si>
+  <si>
+    <t>Must be placed under a roof.</t>
+  </si>
+  <si>
+    <t>Keyed+VTE.CannotPlaceAdjacentCeilingFan</t>
+  </si>
+  <si>
+    <t>VTE.CannotPlaceAdjacentCeilingFan</t>
+  </si>
+  <si>
+    <t>Cannot be placed next to ceiling fans.</t>
+  </si>
+  <si>
+    <t>Keyed+VTE.Efficiency</t>
+  </si>
+  <si>
+    <t>VTE.Efficiency</t>
+  </si>
+  <si>
+    <t>Network efficiency</t>
+  </si>
+  <si>
+    <t>Keyed+VTE.NetworkTargetTemp</t>
+  </si>
+  <si>
+    <t>VTE.NetworkTargetTemp</t>
+  </si>
+  <si>
+    <t>Network target temperature</t>
+  </si>
+  <si>
+    <t>Keyed+VTE.Production</t>
+  </si>
+  <si>
+    <t>VTE.Production</t>
+  </si>
+  <si>
+    <t>Production</t>
+  </si>
+  <si>
+    <t>Keyed+VTE.Consumption</t>
+  </si>
+  <si>
+    <t>VTE.Consumption</t>
+  </si>
+  <si>
+    <t>Consumption</t>
+  </si>
+  <si>
+    <t>Keyed+VTE.TotalProduction</t>
+  </si>
+  <si>
+    <t>VTE.TotalProduction</t>
+  </si>
+  <si>
+    <t>Total production</t>
+  </si>
+  <si>
+    <t>Keyed+VTE.TotalConsumption</t>
+  </si>
+  <si>
+    <t>VTE.TotalConsumption</t>
+  </si>
+  <si>
+    <t>Total consumption</t>
+  </si>
+  <si>
+    <t>Keyed+VTE.Relink</t>
+  </si>
+  <si>
+    <t>VTE.Relink</t>
+  </si>
+  <si>
+    <t>Link temperature</t>
+  </si>
+  <si>
+    <t>Keyed+VTE.Unlink</t>
+  </si>
+  <si>
+    <t>VTE.Unlink</t>
+  </si>
+  <si>
+    <t>Unlink temperature</t>
+  </si>
+  <si>
+    <t>Keyed+VTE.AcRelinkDescription</t>
+  </si>
+  <si>
+    <t>VTE.AcRelinkDescription</t>
+  </si>
+  <si>
+    <t>Link this AC unit with the system, inheriting the desired temperature.</t>
+  </si>
+  <si>
+    <t>Keyed+VTE.AcUnlinkDescription</t>
+  </si>
+  <si>
+    <t>VTE.AcUnlinkDescription</t>
+  </si>
+  <si>
+    <t>Unlink this AC unit from inheriting desired temperature from the system.</t>
+  </si>
+  <si>
+    <t>Keyed+VTE.MissingCompressors</t>
+  </si>
+  <si>
+    <t>VTE.MissingCompressors</t>
+  </si>
+  <si>
+    <t>Cannot work: Not enough compressors connected.</t>
+  </si>
+  <si>
+    <t>Keyed+VTE.MissingController</t>
+  </si>
+  <si>
+    <t>VTE.MissingController</t>
+  </si>
+  <si>
+    <t>Cannot work: Missing AC control unit.</t>
+  </si>
+  <si>
+    <t>Keyed+VTE.TooManyControllers</t>
+  </si>
+  <si>
+    <t>VTE.TooManyControllers</t>
+  </si>
+  <si>
+    <t>Cannot work: Connected to more than one AC control unit.</t>
+  </si>
+  <si>
+    <t>Keyed+VTE.CompressorCovered</t>
+  </si>
+  <si>
+    <t>VTE.CompressorCovered</t>
+  </si>
+  <si>
+    <t>Cannot work: Covered by roof.</t>
+  </si>
+  <si>
+    <t>Keyed+VTE_VentValve</t>
+  </si>
+  <si>
+    <t>VTE_VentValve</t>
+  </si>
+  <si>
+    <t>Keyed+VTE_VentValveDesc</t>
+  </si>
+  <si>
+    <t>VTE_VentValveDesc</t>
+  </si>
+  <si>
+    <t>Switches air flow on/off. A pawn will come open/close the valve.</t>
+  </si>
+  <si>
+    <t>공조용 압축기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공조용 대형 압축기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공기조화기술</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>산업용 전열기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>산업용 냉방기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽걸이 전열기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽걸이 냉방기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽걸이 환풍구</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스탠드 냉방기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소형 실링팬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대형 실링팬</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공조 제어기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공조 파이프</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공조 밸브</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공조 파이프 (매립)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빌트인 전열기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지붕 밑에 설치해야 합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실내에서도 개별 열원 효과 적용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개별 열원이 식물의 성장 온도 조건을 충족하도록 허용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공조 배관망의 흐름을 열거나 닫을 수 있는 밸브입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정착민에게 밸브를 열거나 잠그도록 지시합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>밸브 열림</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공조 효율</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>개별 제어 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중앙 제어 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>온도 설정을 중앙 제어기에 맡깁니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>중앙 제어기 대신 자체적인 온도 설정을 사용합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공조 용량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공조 점유량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공조 배관망 용량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공조 배관망 점유량</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설정 온도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작동 중단: 연결된 공조 제어기가 없습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작동 중단: 공조 용량이 부족합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작동 중단: 하나의 공조 제어기에만 연결돼야 합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>열기가 나오는 방향이 가로막혀 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 실링팬 바로 옆에는 설치할 수 없습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작동 중단: 지붕으로 막혀있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공조 배관망에서 공조기와 압축기 사이에 공기를 전달하는 덕트입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지하에 매립하여 공조 배관망에서 공조기와 압축기 사이에 공기를 전달하는 덕트입니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>A main air conditioning control unit. Connects to compressors to allow AC units to generate cool or hot air. Needs to be connected to compressors by air ducts. AC control unit dictates the desired temperature for all AC units in the same network. Installing too many AC units may decrease the efficiency of the network, increasing the power drain of all devices. Constructing additional compressors will improve the efficiency of the network.</t>
-  </si>
-  <si>
-    <t>ThingDef+VTE_ACUnit.label</t>
-  </si>
-  <si>
-    <t>VTE_ACUnit.label</t>
-  </si>
-  <si>
-    <t>AC unit</t>
-  </si>
-  <si>
-    <t>ThingDef+VTE_ACUnit.description</t>
-  </si>
-  <si>
-    <t>VTE_ACUnit.description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>An air-conditioning machine that fits into a wall. Emits either cool or warm air in the same direction, depending on the current temperature of the room. Unless unlinked from the network settings, it will aim to achieve the temperature specified in the AC control unit. Needs to be connected to the AC control unit via air ducts.</t>
-  </si>
-  <si>
-    <t>ThingDef+VTE_ACUnitWall.label</t>
-  </si>
-  <si>
-    <t>VTE_ACUnitWall.label</t>
-  </si>
-  <si>
-    <t>wall-mounted AC unit</t>
-  </si>
-  <si>
-    <t>ThingDef+VTE_ACUnitWall.description</t>
-  </si>
-  <si>
-    <t>VTE_ACUnitWall.description</t>
-  </si>
-  <si>
-    <t>A wall-mounted air-conditioning machine. Emits either cool or warm air in the same direction, depending on the current temperature of the room. Unless unlinked from the network settings, it will aim to achieve the temperature specified in the AC control unit. Needs to be connected to the AC control unit via air ducts. Can only be constructed on a wall.</t>
-  </si>
-  <si>
-    <t>ThingDef+VTE_ACCompressor.label</t>
-  </si>
-  <si>
-    <t>VTE_ACCompressor.label</t>
-  </si>
-  <si>
-    <t>AC compressor</t>
-  </si>
-  <si>
-    <t>ThingDef+VTE_ACCompressor.description</t>
-  </si>
-  <si>
-    <t>VTE_ACCompressor.description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽걸이 공조기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빌트인 공조기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽에 걸어서 설치하는 공기 조화 설비입니다. 방의 현재 온도에 따라서 뜨겁거나 찬 공기를 같은 방향으로 내보낼 수 있습니다.\n\n독립 제어 모드로 설정하지 않으면 방의 온도를 중앙 제어기에서 지정한 온도에 맞추려고 할 것입니다. 공조 파이프를 통해 공조 제어기와 연결되어야 합니다. 벽 위에만 설치할 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>An air conditioning compressor that needs to be connected to an AC control unit via air ducts. Can only be placed outside. When powered, it allows the AC network to operate two additional AC devices without losing efficiency.</t>
-  </si>
-  <si>
-    <t>ThingDef+VTE_LargeACCompressor.label</t>
-  </si>
-  <si>
-    <t>VTE_LargeACCompressor.label</t>
-  </si>
-  <si>
-    <t>large AC compressor</t>
-  </si>
-  <si>
-    <t>ThingDef+VTE_LargeACCompressor.description</t>
-  </si>
-  <si>
-    <t>VTE_LargeACCompressor.description</t>
-  </si>
-  <si>
-    <t>A large air conditioning compressor that needs to be connected to an AC control unit via air ducts. Can only be placed outside. When powered, it allows the AC network to operate six additional AC devices without losing efficiency.</t>
-  </si>
-  <si>
-    <t>ResearchProjectDef+VTE_HVAC.label</t>
-  </si>
-  <si>
-    <t>ResearchProjectDef</t>
-  </si>
-  <si>
-    <t>VTE_HVAC.label</t>
-  </si>
-  <si>
-    <t>HVAC</t>
-  </si>
-  <si>
-    <t>ResearchProjectDef+VTE_HVAC.description</t>
-  </si>
-  <si>
-    <t>VTE_HVAC.description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공조 파이프를 통해 공조 제어기와 연결하여 사용하는 대형 압축기입니다. 지붕으로 가려지지 않은 실외에만 설치할 수 있습니다.\n\n작동 시 공조 배관망에 여섯 대의 공조기를 추가로 설치할 수 있는 여유 용량을 제공합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공조 파이프를 통해 공조 제어기와 연결하여 사용하는 압축기입니다. 지붕으로 가려지지 않은 실외에만 설치할 수 있습니다.\n\n작동 시 공조 배관망에 두 대의 공조기를 추가로 설치할 수 있는 여유 용량을 제공합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Build a reliable air conditioning system connecting AC control units and compressors to AC units via air ducts.</t>
-  </si>
-  <si>
-    <t>ResearchTabDef+VanillaExpanded.label</t>
-  </si>
-  <si>
-    <t>ResearchTabDef</t>
-  </si>
-  <si>
-    <t>VanillaExpanded.label</t>
-  </si>
-  <si>
-    <t>Vanilla Expanded</t>
-  </si>
-  <si>
-    <t>ThingDef+VTE_IndustrialHeater.label</t>
-  </si>
-  <si>
-    <t>VTE_IndustrialHeater.label</t>
-  </si>
-  <si>
-    <t>industrial heater</t>
-  </si>
-  <si>
-    <t>ThingDef+VTE_IndustrialHeater.description</t>
-  </si>
-  <si>
-    <t>VTE_IndustrialHeater.description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공조 제어기와 압축기, 공조기를 파이프로 연결하여 신뢰성 높은 공기 조화 시스템을 구축합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A ceiling-mounted fan. Can be used to slowly cool down rooms during the summer. Not efficient enough to refrigerate food, it will aim to reach a room temperature of 17C.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>천장에 설치하는 선풍기입니다. 여름같이 무더운 날 방을 천천히 식히는 데 사용할 수 있습니다. 방의 온도를 17도까지 낮출 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>천장에 설치하는 커다란 선풍기입니다. 여름같이 무더운 날 방을 빠르게 식히는 데 사용할 수 있습니다. 방의 온도를 17도까지 낮출 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공조 설비의 주 제어 장치입니다. 각 방에 설치된 공조기에 뜨겁거나 찬 바람을 보낼 수 있도록 공조 파이프를 통해 압축기와 연결되어야 합니다.\n\n공조 제어기는 같은 배관망에 연결된 모든 공조기에 대한 목표 온도를 지정할 수 있습니다. 공조기가 너무 많이 연결되면 공조 효율이 저하될 수 있으며, 연결된 모든 설비의 전력 소모를 증가시킵니다. 압축기를 추가로 설치하여 공조 효율을 높일 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽에 걸어서 설치하여 전기를 열로 바꾸는 기기입니다. 목표 온도에 도달하기 위해 스스로 켜고 끌 수 있습니다. 벽 위에만 설치할 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽에 걸어서 설치하여 차가운 공기를 주입하는 데 쓰입니다. 배기구는 많은 양의 열을 만듭니다. 방을 시원하게 만들거나 냉동고를 만들 때 사용할 수 있습니다. 벽 위에만 설치할 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽에 걸어서 설치하는 간단한 환풍구입니다. 사람들의 통행을 막으면서 두 방의 온도를 맞출 수 있습니다. 벽 위에만 설치할 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>바닥에 세워서 차가운 공기를 주입하는 데 쓰입니다. 방을 시원하게 만들거나 냉동고를 만들 때 사용할 수 있습니다. 냉장고를 만들 만큼 강력하진 않습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A large, industrial-type heater machine that fits into a wall. It converts electricity into heat. It can automatically turn itself on or off to reach a specific target temperature. It is capable of heating up the room to a much higher temperature than the standard heaters.</t>
-  </si>
-  <si>
-    <t>ThingDef+VTE_IndustrialCooler.label</t>
-  </si>
-  <si>
-    <t>VTE_IndustrialCooler.label</t>
-  </si>
-  <si>
-    <t>industrial cooler</t>
-  </si>
-  <si>
-    <t>ThingDef+VTE_IndustrialCooler.description</t>
-  </si>
-  <si>
-    <t>VTE_IndustrialCooler.description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽에 맞춰 설치하여 전기를 열로 바꾸는 기기입니다. 목표 온도에 도달하기 위해 스스로 켜고 끌 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽에 맞춰 설치하는 공기 조화 설비입니다. 방의 현재 온도에 따라서 뜨겁거나 찬 공기를 같은 방향으로 내보낼 수 있습니다.\n\n독립 제어 모드로 설정하지 않으면 방의 온도를 중앙 제어기에서 지정한 온도에 맞추려고 할 것입니다. 공조 파이프를 통해 공조 제어기와 연결되어야 합니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>A large, industrial-type air-cooling machine that fits into a wall. Cool air comes out one side, while hot exhaust comes out the other. Can be used to cool down rooms during summer, or to create a walk-in freezer. It’s capable of cooling the room to much lower temperature than the standard cooler.</t>
-  </si>
-  <si>
-    <t>ThingDef+VTE_WallHeater.label</t>
-  </si>
-  <si>
-    <t>VTE_WallHeater.label</t>
-  </si>
-  <si>
-    <t>wall heater</t>
-  </si>
-  <si>
-    <t>ThingDef+VTE_WallHeater.description</t>
-  </si>
-  <si>
-    <t>VTE_WallHeater.description</t>
-  </si>
-  <si>
-    <t>A heating machine that fits into a wall. It converts electricity into heat. It can automatically turn itself on or off to reach a specific target temperature. Can be used to heat up rooms during winter.</t>
-  </si>
-  <si>
-    <t>ThingDef+VTE_WallMountedHeater.label</t>
-  </si>
-  <si>
-    <t>VTE_WallMountedHeater.label</t>
-  </si>
-  <si>
-    <t>wall-mounted heater</t>
-  </si>
-  <si>
-    <t>ThingDef+VTE_WallMountedHeater.description</t>
-  </si>
-  <si>
-    <t>VTE_WallMountedHeater.description</t>
-  </si>
-  <si>
-    <t>A wall-mounted device that converts electricity into heat. It can automatically turn itself on or off to reach a specific target temperature. Can only be constructed on a wall.</t>
-  </si>
-  <si>
-    <t>ThingDef+VTE_WallMountedCooler.label</t>
-  </si>
-  <si>
-    <t>VTE_WallMountedCooler.label</t>
-  </si>
-  <si>
-    <t>wall-mounted cooler</t>
-  </si>
-  <si>
-    <t>ThingDef+VTE_WallMountedCooler.description</t>
-  </si>
-  <si>
-    <t>VTE_WallMountedCooler.description</t>
-  </si>
-  <si>
-    <t>A wall-mounted air-cooling machine that fits into a wall. Cool air comes out one side, while hot exhaust comes out the other. Can be used to cool down rooms during summer, or to create a walk-in freezer. Can only be constructed on a wall.</t>
-  </si>
-  <si>
-    <t>ThingDef+VTE_WallMountedVent.label</t>
-  </si>
-  <si>
-    <t>VTE_WallMountedVent.label</t>
-  </si>
-  <si>
-    <t>wall-mounted vent</t>
-  </si>
-  <si>
-    <t>ThingDef+VTE_WallMountedVent.description</t>
-  </si>
-  <si>
-    <t>VTE_WallMountedVent.description</t>
-  </si>
-  <si>
-    <t>A simple, wall-mounted vent for equalizing the temperature between two rooms without allowing people to walk between them. Can only be constructed on a wall.</t>
-  </si>
-  <si>
-    <t>ThingDef+VTE_StandingCooler.label</t>
-  </si>
-  <si>
-    <t>VTE_StandingCooler.label</t>
-  </si>
-  <si>
-    <t>standing cooler</t>
-  </si>
-  <si>
-    <t>ThingDef+VTE_StandingCooler.description</t>
-  </si>
-  <si>
-    <t>VTE_StandingCooler.description</t>
-  </si>
-  <si>
-    <t>A free standing air-cooling machine. Cool air comes out of a fan and spreads over surrounding area. Can be used to cool down rooms during summer. Not efficient enough to refrigerate food.</t>
-  </si>
-  <si>
-    <t>ThingDef+VTE_SmallCeilingFan.label</t>
-  </si>
-  <si>
-    <t>VTE_SmallCeilingFan.label</t>
-  </si>
-  <si>
-    <t>small ceiling fan</t>
-  </si>
-  <si>
-    <t>ThingDef+VTE_SmallCeilingFan.description</t>
-  </si>
-  <si>
-    <t>VTE_SmallCeilingFan.description</t>
-  </si>
-  <si>
-    <t>A ceiling-mounted fan. Can be used to slowly cool down rooms during the summer. Not efficient enough to refrigerate food, it will aim to reach a room temperature of 17C.</t>
-  </si>
-  <si>
-    <t>ThingDef+VTE_LargeCeilingFan.label</t>
-  </si>
-  <si>
-    <t>VTE_LargeCeilingFan.label</t>
-  </si>
-  <si>
-    <t>large ceiling fan</t>
-  </si>
-  <si>
-    <t>ThingDef+VTE_LargeCeilingFan.description</t>
-  </si>
-  <si>
-    <t>VTE_LargeCeilingFan.description</t>
-  </si>
-  <si>
-    <t>A large, ceiling-mounted fan. Can be used to quickly cool down rooms during the summer. Not efficient enough to refrigerate food, it will aim to reach a room temperature of 17C.</t>
-  </si>
-  <si>
-    <t>Keyed+PH.EnableProxyHeatEffectIndoors</t>
-  </si>
-  <si>
-    <t>Keyed</t>
-  </si>
-  <si>
-    <t>PH.EnableProxyHeatEffectIndoors</t>
-  </si>
-  <si>
-    <t>Enable proxy heat effect indoors</t>
-  </si>
-  <si>
-    <t>Keyed+PH.AllowPlantGrowthInsideProxyHeatEffectRadius</t>
-  </si>
-  <si>
-    <t>PH.AllowPlantGrowthInsideProxyHeatEffectRadius</t>
-  </si>
-  <si>
-    <t>Allow plant growth inside proxy heat effect radius</t>
-  </si>
-  <si>
-    <t>Keyed+VTE.MustPlaceHeaterWithFreeSpaces</t>
-  </si>
-  <si>
-    <t>VTE.MustPlaceHeaterWithFreeSpaces</t>
-  </si>
-  <si>
-    <t>The hot side of the heater must be exposed.</t>
-  </si>
-  <si>
-    <t>Keyed+VTE.MustPlaceUnderRoof</t>
-  </si>
-  <si>
-    <t>VTE.MustPlaceUnderRoof</t>
-  </si>
-  <si>
-    <t>Must be placed under a roof.</t>
-  </si>
-  <si>
-    <t>Keyed+VTE.CannotPlaceAdjacentCeilingFan</t>
-  </si>
-  <si>
-    <t>VTE.CannotPlaceAdjacentCeilingFan</t>
-  </si>
-  <si>
-    <t>Cannot be placed next to ceiling fans.</t>
-  </si>
-  <si>
-    <t>Keyed+VTE.Efficiency</t>
-  </si>
-  <si>
-    <t>VTE.Efficiency</t>
-  </si>
-  <si>
-    <t>Network efficiency</t>
-  </si>
-  <si>
-    <t>Keyed+VTE.NetworkTargetTemp</t>
-  </si>
-  <si>
-    <t>VTE.NetworkTargetTemp</t>
-  </si>
-  <si>
-    <t>Network target temperature</t>
-  </si>
-  <si>
-    <t>Keyed+VTE.Production</t>
-  </si>
-  <si>
-    <t>VTE.Production</t>
-  </si>
-  <si>
-    <t>Production</t>
-  </si>
-  <si>
-    <t>Keyed+VTE.Consumption</t>
-  </si>
-  <si>
-    <t>VTE.Consumption</t>
-  </si>
-  <si>
-    <t>Consumption</t>
-  </si>
-  <si>
-    <t>Keyed+VTE.TotalProduction</t>
-  </si>
-  <si>
-    <t>VTE.TotalProduction</t>
-  </si>
-  <si>
-    <t>Total production</t>
-  </si>
-  <si>
-    <t>Keyed+VTE.TotalConsumption</t>
-  </si>
-  <si>
-    <t>VTE.TotalConsumption</t>
-  </si>
-  <si>
-    <t>Total consumption</t>
-  </si>
-  <si>
-    <t>Keyed+VTE.Relink</t>
-  </si>
-  <si>
-    <t>VTE.Relink</t>
-  </si>
-  <si>
-    <t>Link temperature</t>
-  </si>
-  <si>
-    <t>Keyed+VTE.Unlink</t>
-  </si>
-  <si>
-    <t>VTE.Unlink</t>
-  </si>
-  <si>
-    <t>Unlink temperature</t>
-  </si>
-  <si>
-    <t>Keyed+VTE.AcRelinkDescription</t>
-  </si>
-  <si>
-    <t>VTE.AcRelinkDescription</t>
-  </si>
-  <si>
-    <t>Link this AC unit with the system, inheriting the desired temperature.</t>
-  </si>
-  <si>
-    <t>Keyed+VTE.AcUnlinkDescription</t>
-  </si>
-  <si>
-    <t>VTE.AcUnlinkDescription</t>
-  </si>
-  <si>
-    <t>Unlink this AC unit from inheriting desired temperature from the system.</t>
-  </si>
-  <si>
-    <t>Keyed+VTE.MissingCompressors</t>
-  </si>
-  <si>
-    <t>VTE.MissingCompressors</t>
-  </si>
-  <si>
-    <t>Cannot work: Not enough compressors connected.</t>
-  </si>
-  <si>
-    <t>Keyed+VTE.MissingController</t>
-  </si>
-  <si>
-    <t>VTE.MissingController</t>
-  </si>
-  <si>
-    <t>Cannot work: Missing AC control unit.</t>
-  </si>
-  <si>
-    <t>Keyed+VTE.TooManyControllers</t>
-  </si>
-  <si>
-    <t>VTE.TooManyControllers</t>
-  </si>
-  <si>
-    <t>Cannot work: Connected to more than one AC control unit.</t>
-  </si>
-  <si>
-    <t>Keyed+VTE.CompressorCovered</t>
-  </si>
-  <si>
-    <t>VTE.CompressorCovered</t>
-  </si>
-  <si>
-    <t>Cannot work: Covered by roof.</t>
-  </si>
-  <si>
-    <t>Keyed+VTE_VentValve</t>
-  </si>
-  <si>
-    <t>VTE_VentValve</t>
-  </si>
-  <si>
-    <t>Keyed+VTE_VentValveDesc</t>
-  </si>
-  <si>
-    <t>VTE_VentValveDesc</t>
-  </si>
-  <si>
-    <t>Switches air flow on/off. A pawn will come open/close the valve.</t>
-  </si>
-  <si>
-    <t>공조 배관</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공조 배관 밸브</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공조 배관 (매립)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공조용 압축기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공조용 대형 압축기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공기조화기술</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>산업용 전열기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>산업용 냉방기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>벽걸이 전열기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>매립형 전열기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>벽걸이 냉방기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>벽걸이 환풍구</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스탠드 냉방기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소형 실링팬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>대형 실링팬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공조 유닛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>벽걸이 공조 유닛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>공조 제어기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽에 맞춰 설치하여 차가운 공기를 주입하는 데 쓰이는 거대한 산업용 냉방기입니다. 배기구는 많은 양의 열을 만듭니다. 방을 시원하게 만들거나 냉동고를 만들 때 사용할 수 있습니다. 일반적인 냉방기보다 훨씬 낮은 온도로 방을 냉각할 수 있습니다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽에 맞춰 설치하여 전기를 열로 바꾸는 거대한 산업용 전열기입니다. 목표 온도에 도달하기 위해 스스로 켜고 끌 수 있습니다. 일반적인 전열기보다 훨씬 높은 온도로 방을 가열할 수 있습니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -668,7 +839,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -696,8 +867,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -709,8 +896,18 @@
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -733,20 +930,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="보통" xfId="3" builtinId="28"/>
     <cellStyle name="셀 확인" xfId="1" builtinId="23"/>
+    <cellStyle name="좋음" xfId="2" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1049,8 +1281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1058,8 +1290,8 @@
     <col min="1" max="1" width="57" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.6328125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.81640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.26953125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="1.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="93.26953125" style="1" customWidth="1"/>
     <col min="6" max="6" width="31.81640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.1796875" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.1796875" style="1"/>
@@ -1098,6 +1330,9 @@
       <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -1112,6 +1347,9 @@
       <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="F3" s="4" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
@@ -1126,8 +1364,8 @@
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>190</v>
+      <c r="F4" s="3" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -1143,6 +1381,9 @@
       <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="F5" s="3" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
@@ -1157,8 +1398,8 @@
       <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>191</v>
+      <c r="F6" s="3" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -1174,6 +1415,9 @@
       <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F7" s="3" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
@@ -1188,8 +1432,8 @@
       <c r="E8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>192</v>
+      <c r="F8" s="3" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -1205,6 +1449,9 @@
       <c r="E9" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="F9" s="3" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
@@ -1219,8 +1466,8 @@
       <c r="E10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>207</v>
+      <c r="F10" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -1234,750 +1481,865 @@
         <v>36</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>37</v>
+        <v>225</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>205</v>
+      <c r="F12" s="3" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>43</v>
+        <v>226</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>206</v>
+      <c r="F14" s="3" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>49</v>
+      <c r="F15" s="3" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>193</v>
+      <c r="F16" s="3" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>55</v>
+        <v>230</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>194</v>
+        <v>55</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>195</v>
+      <c r="F20" s="3" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A21" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>68</v>
+        <v>233</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A22" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>196</v>
+        <v>71</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>78</v>
+        <v>243</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>197</v>
+        <v>76</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>84</v>
+        <v>246</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>198</v>
+        <v>87</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>200</v>
+        <v>93</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>201</v>
+        <v>99</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>202</v>
+        <v>105</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="F37" s="1" t="s">
-        <v>203</v>
+        <v>111</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>120</v>
+        <v>235</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>204</v>
+        <v>116</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A40" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>126</v>
+      <c r="A40" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A42" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A43" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B43" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D43" s="6"/>
+      <c r="E43" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A42" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A43" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>136</v>
+      <c r="F43" s="9" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A45" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>142</v>
+      <c r="A45" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A49" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A50" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C48" s="1" t="s">
+      <c r="E50" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F50" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A51" s="5" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A49" s="1" t="s">
+      <c r="B51" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="D51" s="5"/>
+      <c r="E51" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F51" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A52" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A50" s="1" t="s">
+      <c r="B52" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C50" s="1" t="s">
+      <c r="E52" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F52" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A53" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A51" s="1" t="s">
+      <c r="B53" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C51" s="1" t="s">
+      <c r="E53" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F53" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A54" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A52" s="1" t="s">
+      <c r="B54" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="E54" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="F54" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A55" s="5" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A53" s="1" t="s">
+      <c r="B55" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="D55" s="5"/>
+      <c r="E55" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="F55" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A56" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A54" s="1" t="s">
+      <c r="B56" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C54" s="1" t="s">
+      <c r="E56" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="F56" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A57" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A55" s="1" t="s">
+      <c r="B57" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C55" s="1" t="s">
+      <c r="E57" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="F57" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A58" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A56" s="1" t="s">
+      <c r="B58" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C56" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="F58" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A59" s="5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A57" s="1" t="s">
+      <c r="B59" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C57" s="1" t="s">
+      <c r="D59" s="5"/>
+      <c r="E59" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="F59" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A60" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A58" s="1" t="s">
+      <c r="B60" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A59" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F60" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61" s="1" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>189</v>
+        <v>182</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
